--- a/inst/extdata/demo_template.xlsx
+++ b/inst/extdata/demo_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandalgarno/Code/chilliwack-exploit-upload/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997537C2-ECAF-0040-B9CB-E0C3449C0494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A786D5-DCB6-2841-8FB3-BB11CFB697AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27720" windowHeight="17040" activeTab="2" xr2:uid="{D2F727D3-E3E6-DE42-943C-87973B24BE7C}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27720" windowHeight="17040" xr2:uid="{D2F727D3-E3E6-DE42-943C-87973B24BE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="outing" sheetId="2" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>comments (all combined)</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>c("GA", NA)</t>
+  </si>
+  <si>
+    <t>"GA"</t>
   </si>
   <si>
     <t>""</t>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D07577A-358A-F34F-9161-33686BFF2FB9}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -778,40 +778,40 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
       <c r="Q1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
         <v>15</v>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -839,52 +839,52 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
         <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
       </c>
       <c r="R3" t="s">
         <v>33</v>
@@ -892,49 +892,49 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
       </c>
       <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>93</v>
       </c>
-      <c r="G4" t="s">
-        <v>94</v>
-      </c>
       <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
         <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>94</v>
       </c>
       <c r="J4" t="s">
         <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4" t="s">
         <v>105</v>
@@ -943,12 +943,12 @@
         <v>106</v>
       </c>
       <c r="R4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B9C42-9339-A047-901C-9A85D8DE94F1}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1094,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1112,13 +1112,13 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1136,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>
@@ -1159,7 +1159,7 @@
         <v>5497670</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2">
         <v>510</v>
@@ -1174,7 +1174,7 @@
         <v>19545</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1200,10 +1200,10 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -1215,13 +1215,13 @@
         <v>30</v>
       </c>
       <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
@@ -1235,16 +1235,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
       </c>
       <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
         <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
       </c>
       <c r="E4" t="s">
         <v>113</v>
@@ -1253,22 +1253,22 @@
         <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
         <v>103</v>
       </c>
       <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
         <v>97</v>
-      </c>
-      <c r="L4" t="s">
-        <v>98</v>
       </c>
       <c r="M4" t="s">
         <v>113</v>
@@ -1277,21 +1277,21 @@
         <v>113</v>
       </c>
       <c r="O4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" t="s">
         <v>99</v>
       </c>
-      <c r="P4" t="s">
-        <v>100</v>
-      </c>
       <c r="Q4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1410,20 +1410,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5014DBCF-9011-9A47-9D03-DDE81D462BF0}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1435,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -1450,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -1461,7 +1469,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>19546</v>
@@ -1470,7 +1478,7 @@
         <v>19545</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1487,22 +1495,22 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
@@ -1510,16 +1518,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>107</v>
@@ -1540,12 +1548,12 @@
         <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>

--- a/inst/extdata/demo_template.xlsx
+++ b/inst/extdata/demo_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandalgarno/Code/chilliwack-exploit-upload/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandalgarno/Code/chktemplate/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A786D5-DCB6-2841-8FB3-BB11CFB697AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE85735-BCA0-6946-8E8D-1BBE464508DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27720" windowHeight="17040" xr2:uid="{D2F727D3-E3E6-DE42-943C-87973B24BE7C}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27720" windowHeight="17040" activeTab="2" xr2:uid="{D2F727D3-E3E6-DE42-943C-87973B24BE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="outing" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>year</t>
   </si>
@@ -290,15 +290,6 @@
   </si>
   <si>
     <t>lure type used in capture</t>
-  </si>
-  <si>
-    <t>recapture</t>
-  </si>
-  <si>
-    <t>capture</t>
-  </si>
-  <si>
-    <t>outing</t>
   </si>
   <si>
     <t>chk</t>
@@ -738,9 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D07577A-358A-F34F-9161-33686BFF2FB9}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -763,7 +752,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>71</v>
@@ -892,63 +881,63 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>90</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" t="s">
         <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1067,9 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B9C42-9339-A047-901C-9A85D8DE94F1}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1094,7 +1081,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>71</v>
@@ -1235,63 +1222,63 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
         <v>95</v>
       </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>96</v>
       </c>
-      <c r="L4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" t="s">
-        <v>99</v>
-      </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1410,9 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5014DBCF-9011-9A47-9D03-DDE81D462BF0}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1431,7 +1416,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1518,42 +1503,42 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" t="s">
         <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>

--- a/inst/extdata/demo_template.xlsx
+++ b/inst/extdata/demo_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandalgarno/Code/chktemplate/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE85735-BCA0-6946-8E8D-1BBE464508DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F5A2D5-C3FF-E44C-8435-4C0B238DBE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27720" windowHeight="17040" activeTab="2" xr2:uid="{D2F727D3-E3E6-DE42-943C-87973B24BE7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
   <si>
     <t>year</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>c(0L, 10000000L)</t>
+  </si>
+  <si>
+    <t>angler</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5014DBCF-9011-9A47-9D03-DDE81D462BF0}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1428,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
         <v>50</v>

--- a/inst/extdata/demo_template.xlsx
+++ b/inst/extdata/demo_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandalgarno/Code/chktemplate/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F5A2D5-C3FF-E44C-8435-4C0B238DBE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F9B9B-10C1-EA4C-8437-5C0A2D217E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27720" windowHeight="17040" activeTab="2" xr2:uid="{D2F727D3-E3E6-DE42-943C-87973B24BE7C}"/>
   </bookViews>
@@ -732,7 +732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D07577A-358A-F34F-9161-33686BFF2FB9}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -945,54 +947,6 @@
       <c r="B5" t="b">
         <v>1</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1000,54 +954,6 @@
       </c>
       <c r="B6" t="b">
         <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B9C42-9339-A047-901C-9A85D8DE94F1}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:R5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1292,103 +1200,13 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
       <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1219,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1554,62 +1372,23 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
